--- a/data/ewas_cpgs_top_OS.xlsx
+++ b/data/ewas_cpgs_top_OS.xlsx
@@ -658,7 +658,7 @@
     <t>SEMA3D</t>
   </si>
   <si>
-    <t>C7orf50;RP11-449P15.1;GPR146</t>
+    <t>C7orf50;GPR146;RP11-449P15.1</t>
   </si>
   <si>
     <t>TIMM10B</t>
@@ -691,7 +691,7 @@
     <t>PSMB9</t>
   </si>
   <si>
-    <t>CTBP1-AS;SPON2</t>
+    <t>SPON2;CTBP1-AS</t>
   </si>
   <si>
     <t>NPTN</t>
@@ -712,7 +712,7 @@
     <t>RP11-68I18.10</t>
   </si>
   <si>
-    <t>ARL3;SFXN2</t>
+    <t>SFXN2;ARL3</t>
   </si>
   <si>
     <t>RCBTB1</t>
@@ -721,13 +721,13 @@
     <t>LINC01483</t>
   </si>
   <si>
-    <t>NEAT1_3;NEAT1;NEAT1_2</t>
+    <t>NEAT1;NEAT1_3;NEAT1_2</t>
   </si>
   <si>
     <t>SLC39A11</t>
   </si>
   <si>
-    <t>RP11-99J16__A.2;CAPN9</t>
+    <t>CAPN9;RP11-99J16__A.2</t>
   </si>
   <si>
     <t>SUMO3</t>
@@ -805,25 +805,25 @@
     <t>PRSS8</t>
   </si>
   <si>
-    <t>RNF32;LINC01006</t>
+    <t>LINC01006;RNF32</t>
   </si>
   <si>
     <t>PPM1F;LL22NC03-86G7.1</t>
   </si>
   <si>
-    <t>RP11-77H9.2;PMM2;RP11-152P23.2</t>
+    <t>RP11-77H9.2;RP11-152P23.2;PMM2</t>
   </si>
   <si>
     <t>KIF7</t>
   </si>
   <si>
-    <t>TBCD;ZNF750</t>
-  </si>
-  <si>
-    <t>RP5-858L17.1;SIRPA</t>
-  </si>
-  <si>
-    <t>SNCA;SNCA-AS1</t>
+    <t>ZNF750;TBCD</t>
+  </si>
+  <si>
+    <t>SIRPA;RP5-858L17.1</t>
+  </si>
+  <si>
+    <t>SNCA-AS1;SNCA</t>
   </si>
   <si>
     <t>NXN</t>
@@ -871,7 +871,7 @@
     <t>NDST1</t>
   </si>
   <si>
-    <t>RP11-45A17.2;BNIP3</t>
+    <t>BNIP3;RP11-45A17.2</t>
   </si>
   <si>
     <t>INPP5A</t>
@@ -958,13 +958,13 @@
     <t>RAVER1</t>
   </si>
   <si>
-    <t>TOE1;MUTYH</t>
+    <t>MUTYH;TOE1</t>
   </si>
   <si>
     <t>PTPRN2</t>
   </si>
   <si>
-    <t>ARHGAP9;MARS</t>
+    <t>MARS;ARHGAP9</t>
   </si>
   <si>
     <t>MYCN</t>
@@ -973,7 +973,7 @@
     <t>LRP1</t>
   </si>
   <si>
-    <t>TATDN3;NSL1</t>
+    <t>NSL1;TATDN3</t>
   </si>
   <si>
     <t>NCR3LG1</t>
@@ -991,7 +991,7 @@
     <t>TPRG1-AS1;TPRG1</t>
   </si>
   <si>
-    <t>RP11-55K13.1;GAN</t>
+    <t>GAN;RP11-55K13.1</t>
   </si>
   <si>
     <t>CCNY</t>
@@ -1018,7 +1018,7 @@
     <t>RP11-465B22.8</t>
   </si>
   <si>
-    <t>RP11-33O4.2;NHEJ1</t>
+    <t>NHEJ1;RP11-33O4.2</t>
   </si>
   <si>
     <t>FAM131C</t>
@@ -1045,7 +1045,7 @@
     <t>sense_overlapping</t>
   </si>
   <si>
-    <t>lincRNA;misc_RNA</t>
+    <t>misc_RNA;lincRNA</t>
   </si>
   <si>
     <t>processed_pseudogene</t>
@@ -1060,7 +1060,7 @@
     <t>processed_transcript</t>
   </si>
   <si>
-    <t>protein_coding;processed_pseudogene</t>
+    <t>processed_pseudogene;protein_coding</t>
   </si>
   <si>
     <t>N_Shore</t>

--- a/data/ewas_cpgs_top_OS.xlsx
+++ b/data/ewas_cpgs_top_OS.xlsx
@@ -634,7 +634,7 @@
     <t>CD93</t>
   </si>
   <si>
-    <t>ANKRD11;RP1-168P16.2</t>
+    <t>RP1-168P16.2;ANKRD11</t>
   </si>
   <si>
     <t>MFAP4</t>
@@ -691,7 +691,7 @@
     <t>PSMB9</t>
   </si>
   <si>
-    <t>SPON2;CTBP1-AS</t>
+    <t>CTBP1-AS;SPON2</t>
   </si>
   <si>
     <t>NPTN</t>
@@ -784,7 +784,7 @@
     <t>APLP2</t>
   </si>
   <si>
-    <t>FLCN;MPRIP;RP11-45M22.4</t>
+    <t>RP11-45M22.4;MPRIP;FLCN</t>
   </si>
   <si>
     <t>CNP</t>
@@ -805,10 +805,10 @@
     <t>PRSS8</t>
   </si>
   <si>
-    <t>LINC01006;RNF32</t>
-  </si>
-  <si>
-    <t>PPM1F;LL22NC03-86G7.1</t>
+    <t>RNF32;LINC01006</t>
+  </si>
+  <si>
+    <t>LL22NC03-86G7.1;PPM1F</t>
   </si>
   <si>
     <t>RP11-77H9.2;RP11-152P23.2;PMM2</t>
@@ -817,7 +817,7 @@
     <t>KIF7</t>
   </si>
   <si>
-    <t>ZNF750;TBCD</t>
+    <t>TBCD;ZNF750</t>
   </si>
   <si>
     <t>SIRPA;RP5-858L17.1</t>
@@ -844,7 +844,7 @@
     <t>ADGB;RP11-715G15.1</t>
   </si>
   <si>
-    <t>TBC1D10C;PPP1CA</t>
+    <t>PPP1CA;TBC1D10C</t>
   </si>
   <si>
     <t>SERINC5</t>
@@ -862,7 +862,7 @@
     <t>PLVAP</t>
   </si>
   <si>
-    <t>KLK6;CTB-147C22.9</t>
+    <t>CTB-147C22.9;KLK6</t>
   </si>
   <si>
     <t>DNAJC28</t>
@@ -904,7 +904,7 @@
     <t>HRC</t>
   </si>
   <si>
-    <t>TSPAN31;AGAP2</t>
+    <t>AGAP2;TSPAN31</t>
   </si>
   <si>
     <t>TMEM132B</t>
@@ -958,13 +958,13 @@
     <t>RAVER1</t>
   </si>
   <si>
-    <t>MUTYH;TOE1</t>
+    <t>TOE1;MUTYH</t>
   </si>
   <si>
     <t>PTPRN2</t>
   </si>
   <si>
-    <t>MARS;ARHGAP9</t>
+    <t>ARHGAP9;MARS</t>
   </si>
   <si>
     <t>MYCN</t>
@@ -973,7 +973,7 @@
     <t>LRP1</t>
   </si>
   <si>
-    <t>NSL1;TATDN3</t>
+    <t>TATDN3;NSL1</t>
   </si>
   <si>
     <t>NCR3LG1</t>
@@ -982,7 +982,7 @@
     <t>BRD1</t>
   </si>
   <si>
-    <t>ZNF432;ZNF841</t>
+    <t>ZNF841;ZNF432</t>
   </si>
   <si>
     <t>RP11-84C10.4;SLC39A2</t>
@@ -1006,7 +1006,7 @@
     <t>GPT2</t>
   </si>
   <si>
-    <t>FAM53B;RP11-12J10.3</t>
+    <t>RP11-12J10.3;FAM53B</t>
   </si>
   <si>
     <t>RPN1</t>
@@ -1018,7 +1018,7 @@
     <t>RP11-465B22.8</t>
   </si>
   <si>
-    <t>NHEJ1;RP11-33O4.2</t>
+    <t>RP11-33O4.2;NHEJ1</t>
   </si>
   <si>
     <t>FAM131C</t>
@@ -1027,7 +1027,7 @@
     <t>CHD7</t>
   </si>
   <si>
-    <t>TNFRSF9;RP5-892F13.2</t>
+    <t>RP5-892F13.2;TNFRSF9</t>
   </si>
   <si>
     <t>protein_coding</t>
@@ -1039,7 +1039,7 @@
     <t>lincRNA</t>
   </si>
   <si>
-    <t>antisense;protein_coding</t>
+    <t>protein_coding;antisense</t>
   </si>
   <si>
     <t>sense_overlapping</t>
@@ -1060,7 +1060,7 @@
     <t>processed_transcript</t>
   </si>
   <si>
-    <t>processed_pseudogene;protein_coding</t>
+    <t>protein_coding;processed_pseudogene</t>
   </si>
   <si>
     <t>N_Shore</t>

--- a/data/ewas_cpgs_top_OS.xlsx
+++ b/data/ewas_cpgs_top_OS.xlsx
@@ -772,7 +772,7 @@
     <t>HK2</t>
   </si>
   <si>
-    <t>RP11-99J16__A.2;CAPN9</t>
+    <t>CAPN9;RP11-99J16__A.2</t>
   </si>
   <si>
     <t>BRD1</t>
@@ -781,7 +781,7 @@
     <t>RASGRP2</t>
   </si>
   <si>
-    <t>C7orf50;GPR146;RP11-449P15.1</t>
+    <t>RP11-449P15.1;C7orf50;GPR146</t>
   </si>
   <si>
     <t>NPTN</t>
@@ -865,7 +865,7 @@
     <t>CTRB2</t>
   </si>
   <si>
-    <t>SLC35E2B;CDK11B;MMP23B</t>
+    <t>MMP23B;SLC35E2B;CDK11B</t>
   </si>
   <si>
     <t>UNC93B1</t>
@@ -991,13 +991,13 @@
     <t>SKAP1</t>
   </si>
   <si>
-    <t>PIP5K1C;AC004637.1</t>
+    <t>AC004637.1;PIP5K1C</t>
   </si>
   <si>
     <t>VPS13D</t>
   </si>
   <si>
-    <t>CTD-2162K18.3;CTD-2162K18.4</t>
+    <t>CTD-2162K18.4;CTD-2162K18.3</t>
   </si>
   <si>
     <t>STK3</t>
@@ -1015,7 +1015,7 @@
     <t>P2RX4</t>
   </si>
   <si>
-    <t>AGAP2;TSPAN31</t>
+    <t>TSPAN31;AGAP2</t>
   </si>
   <si>
     <t>SH3BP4</t>
@@ -1027,7 +1027,7 @@
     <t>ADCK3</t>
   </si>
   <si>
-    <t>RASL10B;TAF15</t>
+    <t>TAF15;RASL10B</t>
   </si>
   <si>
     <t>ETV6</t>
@@ -1039,19 +1039,19 @@
     <t>PRSS23</t>
   </si>
   <si>
-    <t>ZNF750;TBCD</t>
+    <t>TBCD;ZNF750</t>
   </si>
   <si>
     <t>RP11-227H15.4</t>
   </si>
   <si>
-    <t>YAF2;PPHLN1</t>
+    <t>PPHLN1;YAF2</t>
   </si>
   <si>
     <t>EOGT</t>
   </si>
   <si>
-    <t>FAM53B;RP11-12J10.3</t>
+    <t>RP11-12J10.3;FAM53B</t>
   </si>
   <si>
     <t>RP11-1252I4.2</t>
@@ -1084,7 +1084,7 @@
     <t>ITPK1</t>
   </si>
   <si>
-    <t>AC007131.1;RP11-444A22.1;AC007131.2</t>
+    <t>AC007131.2;RP11-444A22.1;AC007131.1</t>
   </si>
   <si>
     <t>TRAF3IP2-AS1;TRAF3IP2</t>
@@ -1162,7 +1162,7 @@
     <t>antisense</t>
   </si>
   <si>
-    <t>antisense;protein_coding</t>
+    <t>protein_coding;antisense</t>
   </si>
   <si>
     <t>lincRNA;protein_coding</t>
@@ -1174,10 +1174,10 @@
     <t>sense_overlapping</t>
   </si>
   <si>
-    <t>sense_overlapping;protein_coding</t>
-  </si>
-  <si>
-    <t>processed_transcript;protein_coding</t>
+    <t>protein_coding;sense_overlapping</t>
+  </si>
+  <si>
+    <t>protein_coding;processed_transcript</t>
   </si>
   <si>
     <t>processed_pseudogene</t>

--- a/data/ewas_cpgs_top_OS.xlsx
+++ b/data/ewas_cpgs_top_OS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="395">
   <si>
     <t>chrm</t>
   </si>
@@ -700,7 +700,7 @@
     <t>TSC2</t>
   </si>
   <si>
-    <t>ANKRD11;RP1-168P16.2</t>
+    <t>RP1-168P16.2;ANKRD11</t>
   </si>
   <si>
     <t>CLEC16A</t>
@@ -760,19 +760,19 @@
     <t>VGLL4</t>
   </si>
   <si>
-    <t>SHBG;FXR2</t>
+    <t>FXR2;SHBG</t>
   </si>
   <si>
     <t>LINC01122</t>
   </si>
   <si>
-    <t>RP5-1052I5.2;LINC01140</t>
+    <t>LINC01140;RP5-1052I5.2</t>
   </si>
   <si>
     <t>HK2</t>
   </si>
   <si>
-    <t>CAPN9;RP11-99J16__A.2</t>
+    <t>RP11-99J16__A.2;CAPN9</t>
   </si>
   <si>
     <t>BRD1</t>
@@ -781,7 +781,7 @@
     <t>RASGRP2</t>
   </si>
   <si>
-    <t>RP11-449P15.1;C7orf50;GPR146</t>
+    <t>GPR146;RP11-449P15.1;C7orf50</t>
   </si>
   <si>
     <t>NPTN</t>
@@ -865,7 +865,7 @@
     <t>CTRB2</t>
   </si>
   <si>
-    <t>MMP23B;SLC35E2B;CDK11B</t>
+    <t>MMP23B;CDK11B;SLC35E2B</t>
   </si>
   <si>
     <t>UNC93B1</t>
@@ -919,7 +919,7 @@
     <t>HCP5;MICA</t>
   </si>
   <si>
-    <t>LNX1;LNX1-AS1;FIP1L1</t>
+    <t>FIP1L1;LNX1;LNX1-AS1</t>
   </si>
   <si>
     <t>RP11-114G22.1</t>
@@ -931,7 +931,7 @@
     <t>ANKRD11</t>
   </si>
   <si>
-    <t>ARL3;SFXN2</t>
+    <t>SFXN2;ARL3</t>
   </si>
   <si>
     <t>PDE10A</t>
@@ -997,7 +997,7 @@
     <t>VPS13D</t>
   </si>
   <si>
-    <t>CTD-2162K18.4;CTD-2162K18.3</t>
+    <t>CTD-2162K18.3;CTD-2162K18.4</t>
   </si>
   <si>
     <t>STK3</t>
@@ -1027,7 +1027,7 @@
     <t>ADCK3</t>
   </si>
   <si>
-    <t>TAF15;RASL10B</t>
+    <t>RASL10B;TAF15</t>
   </si>
   <si>
     <t>ETV6</t>
@@ -1039,7 +1039,7 @@
     <t>PRSS23</t>
   </si>
   <si>
-    <t>TBCD;ZNF750</t>
+    <t>ZNF750;TBCD</t>
   </si>
   <si>
     <t>RP11-227H15.4</t>
@@ -1051,7 +1051,7 @@
     <t>EOGT</t>
   </si>
   <si>
-    <t>RP11-12J10.3;FAM53B</t>
+    <t>FAM53B;RP11-12J10.3</t>
   </si>
   <si>
     <t>RP11-1252I4.2</t>
@@ -1066,7 +1066,7 @@
     <t>BAHCC1</t>
   </si>
   <si>
-    <t>KLK6;CTB-147C22.9</t>
+    <t>CTB-147C22.9;KLK6</t>
   </si>
   <si>
     <t>RP11-159F24.3;C5orf28</t>
@@ -1120,10 +1120,10 @@
     <t>USP31</t>
   </si>
   <si>
-    <t>CTD-2506P8.6;GTF2A1</t>
-  </si>
-  <si>
-    <t>C12orf4;RAD51AP1</t>
+    <t>GTF2A1;CTD-2506P8.6</t>
+  </si>
+  <si>
+    <t>RAD51AP1;C12orf4</t>
   </si>
   <si>
     <t>CDIP1</t>
@@ -1165,13 +1165,16 @@
     <t>protein_coding;antisense</t>
   </si>
   <si>
-    <t>lincRNA;protein_coding</t>
+    <t>protein_coding;lincRNA</t>
   </si>
   <si>
     <t>unitary_pseudogene;processed_transcript</t>
   </si>
   <si>
     <t>sense_overlapping</t>
+  </si>
+  <si>
+    <t>antisense;protein_coding</t>
   </si>
   <si>
     <t>protein_coding;sense_overlapping</t>
@@ -1726,7 +1729,7 @@
         <v>378</v>
       </c>
       <c r="G4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H4">
         <v>0.1281076282995872</v>
@@ -2226,7 +2229,7 @@
         <v>381</v>
       </c>
       <c r="G14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H14">
         <v>-0.2807355565354843</v>
@@ -2326,7 +2329,7 @@
         <v>378</v>
       </c>
       <c r="G16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H16">
         <v>-0.1863745687243242</v>
@@ -2476,7 +2479,7 @@
         <v>378</v>
       </c>
       <c r="G19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H19">
         <v>-0.152823389510014</v>
@@ -2526,7 +2529,7 @@
         <v>378</v>
       </c>
       <c r="G20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H20">
         <v>0.1679484438251442</v>
@@ -2576,7 +2579,7 @@
         <v>378</v>
       </c>
       <c r="G21" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H21">
         <v>0.1922866667098735</v>
@@ -2626,7 +2629,7 @@
         <v>378</v>
       </c>
       <c r="G22" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H22">
         <v>0.1613858198070359</v>
@@ -2776,7 +2779,7 @@
         <v>378</v>
       </c>
       <c r="G25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H25">
         <v>-0.1953919482836039</v>
@@ -2976,7 +2979,7 @@
         <v>383</v>
       </c>
       <c r="G29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H29">
         <v>-0.1832520847405864</v>
@@ -3226,7 +3229,7 @@
         <v>378</v>
       </c>
       <c r="G34" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H34">
         <v>0.1563574320194622</v>
@@ -3276,7 +3279,7 @@
         <v>378</v>
       </c>
       <c r="G35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H35">
         <v>-0.1850360702549992</v>
@@ -3326,7 +3329,7 @@
         <v>382</v>
       </c>
       <c r="G36" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H36">
         <v>0.1456117815395944</v>
@@ -3376,7 +3379,7 @@
         <v>378</v>
       </c>
       <c r="G37" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H37">
         <v>-0.2772362058290225</v>
@@ -3426,7 +3429,7 @@
         <v>378</v>
       </c>
       <c r="G38" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H38">
         <v>-0.4367478592425967</v>
@@ -3476,7 +3479,7 @@
         <v>378</v>
       </c>
       <c r="G39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H39">
         <v>0.2193314998222758</v>
@@ -3526,7 +3529,7 @@
         <v>378</v>
       </c>
       <c r="G40" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H40">
         <v>0.1840526153392952</v>
@@ -3626,7 +3629,7 @@
         <v>378</v>
       </c>
       <c r="G42" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H42">
         <v>0.09983799787504384</v>
@@ -3726,7 +3729,7 @@
         <v>378</v>
       </c>
       <c r="G44" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H44">
         <v>-0.1719514784448145</v>
@@ -3776,7 +3779,7 @@
         <v>378</v>
       </c>
       <c r="G45" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H45">
         <v>-0.404346455628757</v>
@@ -3876,7 +3879,7 @@
         <v>384</v>
       </c>
       <c r="G47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H47">
         <v>0.2609063975040073</v>
@@ -4026,7 +4029,7 @@
         <v>378</v>
       </c>
       <c r="G50" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H50">
         <v>-0.4144921978824181</v>
@@ -4126,7 +4129,7 @@
         <v>385</v>
       </c>
       <c r="G52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H52">
         <v>0.1883206397041715</v>
@@ -4176,7 +4179,7 @@
         <v>378</v>
       </c>
       <c r="G53" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H53">
         <v>-0.1900753589839543</v>
@@ -4326,7 +4329,7 @@
         <v>378</v>
       </c>
       <c r="G56" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H56">
         <v>-0.1734736623892388</v>
@@ -4376,7 +4379,7 @@
         <v>378</v>
       </c>
       <c r="G57" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H57">
         <v>-0.3304651334066685</v>
@@ -4476,7 +4479,7 @@
         <v>378</v>
       </c>
       <c r="G59" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H59">
         <v>0.2161602532183263</v>
@@ -4726,7 +4729,7 @@
         <v>383</v>
       </c>
       <c r="G64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H64">
         <v>-0.3117884239803215</v>
@@ -4926,7 +4929,7 @@
         <v>378</v>
       </c>
       <c r="G68" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H68">
         <v>0.1247183648993535</v>
@@ -5026,7 +5029,7 @@
         <v>378</v>
       </c>
       <c r="G70" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H70">
         <v>0.153382469659479</v>
@@ -5076,7 +5079,7 @@
         <v>378</v>
       </c>
       <c r="G71" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H71">
         <v>-0.09859587247872083</v>
@@ -5376,7 +5379,7 @@
         <v>378</v>
       </c>
       <c r="G77" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H77">
         <v>-0.2918577661278159</v>
@@ -5426,7 +5429,7 @@
         <v>378</v>
       </c>
       <c r="G78" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H78">
         <v>-0.2313923484497453</v>
@@ -5526,7 +5529,7 @@
         <v>378</v>
       </c>
       <c r="G80" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H80">
         <v>0.1675801898653992</v>
@@ -5576,7 +5579,7 @@
         <v>382</v>
       </c>
       <c r="G81" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H81">
         <v>0.1646048186260628</v>
@@ -5676,7 +5679,7 @@
         <v>378</v>
       </c>
       <c r="G83" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H83">
         <v>0.1856036630225394</v>
@@ -5726,7 +5729,7 @@
         <v>378</v>
       </c>
       <c r="G84" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H84">
         <v>-0.1382749444870071</v>
@@ -5773,10 +5776,10 @@
         <v>295</v>
       </c>
       <c r="F85" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H85">
         <v>0.1313241375814886</v>
@@ -6026,7 +6029,7 @@
         <v>378</v>
       </c>
       <c r="G90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H90">
         <v>0.1764255922488579</v>
@@ -6073,10 +6076,10 @@
         <v>300</v>
       </c>
       <c r="F91" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G91" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H91">
         <v>-0.3287959221806739</v>
@@ -6226,7 +6229,7 @@
         <v>378</v>
       </c>
       <c r="G94" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H94">
         <v>0.1432558123041273</v>
@@ -6276,7 +6279,7 @@
         <v>378</v>
       </c>
       <c r="G95" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H95">
         <v>0.2418681279933615</v>
@@ -6326,7 +6329,7 @@
         <v>378</v>
       </c>
       <c r="G96" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H96">
         <v>-0.16533845170752</v>
@@ -6376,7 +6379,7 @@
         <v>378</v>
       </c>
       <c r="G97" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H97">
         <v>-0.135463201664165</v>
@@ -6476,7 +6479,7 @@
         <v>241</v>
       </c>
       <c r="G99" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H99">
         <v>0.1294136838948896</v>
@@ -6526,7 +6529,7 @@
         <v>380</v>
       </c>
       <c r="G100" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H100">
         <v>-0.14232811970667</v>
@@ -6576,7 +6579,7 @@
         <v>378</v>
       </c>
       <c r="G101" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H101">
         <v>-0.202231993930243</v>
@@ -6626,7 +6629,7 @@
         <v>378</v>
       </c>
       <c r="G102" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H102">
         <v>-0.1831074302950571</v>
@@ -6676,7 +6679,7 @@
         <v>378</v>
       </c>
       <c r="G103" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H103">
         <v>0.1935446443246476</v>
@@ -6726,7 +6729,7 @@
         <v>378</v>
       </c>
       <c r="G104" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H104">
         <v>0.2474811422945203</v>
@@ -6826,7 +6829,7 @@
         <v>378</v>
       </c>
       <c r="G106" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H106">
         <v>-0.1686547818225725</v>
@@ -6876,7 +6879,7 @@
         <v>378</v>
       </c>
       <c r="G107" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H107">
         <v>-0.2348658093719411</v>
@@ -6926,7 +6929,7 @@
         <v>378</v>
       </c>
       <c r="G108" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H108">
         <v>-0.1677595461992288</v>
@@ -7123,10 +7126,10 @@
         <v>318</v>
       </c>
       <c r="F112" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G112" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H112">
         <v>0.09358315404956201</v>
@@ -7226,7 +7229,7 @@
         <v>241</v>
       </c>
       <c r="G114" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H114">
         <v>-0.188968636150751</v>
@@ -7326,7 +7329,7 @@
         <v>241</v>
       </c>
       <c r="G116" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H116">
         <v>0.1105442996129366</v>
@@ -7376,7 +7379,7 @@
         <v>378</v>
       </c>
       <c r="G117" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H117">
         <v>-0.1773411151572072</v>
@@ -7473,10 +7476,10 @@
         <v>322</v>
       </c>
       <c r="F119" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G119" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H119">
         <v>-0.1799421789233077</v>
@@ -7576,7 +7579,7 @@
         <v>378</v>
       </c>
       <c r="G121" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H121">
         <v>-0.1305083318705849</v>
@@ -7623,10 +7626,10 @@
         <v>325</v>
       </c>
       <c r="F122" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G122" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H122">
         <v>0.1230655835616244</v>
@@ -7726,7 +7729,7 @@
         <v>380</v>
       </c>
       <c r="G124" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H124">
         <v>-0.1682977441432268</v>
@@ -7776,7 +7779,7 @@
         <v>378</v>
       </c>
       <c r="G125" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H125">
         <v>0.1754005239640937</v>
@@ -7826,7 +7829,7 @@
         <v>241</v>
       </c>
       <c r="G126" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H126">
         <v>-0.1769422785841869</v>
@@ -7876,7 +7879,7 @@
         <v>378</v>
       </c>
       <c r="G127" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H127">
         <v>-0.3132987350850267</v>
@@ -7926,7 +7929,7 @@
         <v>378</v>
       </c>
       <c r="G128" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H128">
         <v>-0.136397060207712</v>
@@ -8176,7 +8179,7 @@
         <v>378</v>
       </c>
       <c r="G133" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H133">
         <v>-0.3272820944294888</v>
@@ -8226,7 +8229,7 @@
         <v>378</v>
       </c>
       <c r="G134" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H134">
         <v>-0.1971760236120807</v>
@@ -8276,7 +8279,7 @@
         <v>241</v>
       </c>
       <c r="G135" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H135">
         <v>-0.2410024785663294</v>
@@ -8426,7 +8429,7 @@
         <v>378</v>
       </c>
       <c r="G138" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H138">
         <v>0.2535871610893931</v>
@@ -8676,7 +8679,7 @@
         <v>378</v>
       </c>
       <c r="G143" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H143">
         <v>-0.1340689373983012</v>
@@ -8776,7 +8779,7 @@
         <v>378</v>
       </c>
       <c r="G145" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H145">
         <v>-0.1601180821226825</v>
@@ -8826,7 +8829,7 @@
         <v>241</v>
       </c>
       <c r="G146" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H146">
         <v>-0.1550489261219188</v>
@@ -8876,7 +8879,7 @@
         <v>378</v>
       </c>
       <c r="G147" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H147">
         <v>-0.3734139223689172</v>
@@ -8976,7 +8979,7 @@
         <v>380</v>
       </c>
       <c r="G149" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H149">
         <v>0.2583585870681205</v>
@@ -9026,7 +9029,7 @@
         <v>378</v>
       </c>
       <c r="G150" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H150">
         <v>0.1221771424799774</v>
@@ -9126,7 +9129,7 @@
         <v>378</v>
       </c>
       <c r="G152" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H152">
         <v>0.2244687702271794</v>
@@ -9173,7 +9176,7 @@
         <v>350</v>
       </c>
       <c r="F153" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G153" t="s">
         <v>241</v>
@@ -9223,10 +9226,10 @@
         <v>351</v>
       </c>
       <c r="F154" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G154" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H154">
         <v>-0.140903351334035</v>
@@ -9276,7 +9279,7 @@
         <v>378</v>
       </c>
       <c r="G155" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H155">
         <v>-0.2668866316337902</v>
@@ -9326,7 +9329,7 @@
         <v>378</v>
       </c>
       <c r="G156" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H156">
         <v>-0.286908730475228</v>
@@ -9376,7 +9379,7 @@
         <v>378</v>
       </c>
       <c r="G157" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H157">
         <v>0.1500968522844044</v>
@@ -9526,7 +9529,7 @@
         <v>378</v>
       </c>
       <c r="G160" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H160">
         <v>-0.2090280490329484</v>
@@ -9776,7 +9779,7 @@
         <v>378</v>
       </c>
       <c r="G165" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H165">
         <v>0.1761789210251184</v>
@@ -9876,7 +9879,7 @@
         <v>378</v>
       </c>
       <c r="G167" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H167">
         <v>0.1167149797718514</v>
@@ -9926,7 +9929,7 @@
         <v>378</v>
       </c>
       <c r="G168" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H168">
         <v>-0.136418917217821</v>
@@ -9976,7 +9979,7 @@
         <v>378</v>
       </c>
       <c r="G169" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H169">
         <v>-0.1852394036658012</v>
@@ -10126,7 +10129,7 @@
         <v>380</v>
       </c>
       <c r="G172" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H172">
         <v>0.1508179218137608</v>
@@ -10226,7 +10229,7 @@
         <v>378</v>
       </c>
       <c r="G174" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H174">
         <v>-0.1666063442851978</v>
@@ -10276,7 +10279,7 @@
         <v>378</v>
       </c>
       <c r="G175" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H175">
         <v>0.1193942092758448</v>
@@ -10323,10 +10326,10 @@
         <v>368</v>
       </c>
       <c r="F176" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G176" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H176">
         <v>0.3108850037003252</v>
@@ -10376,7 +10379,7 @@
         <v>378</v>
       </c>
       <c r="G177" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H177">
         <v>-0.1752833093167933</v>
@@ -10576,7 +10579,7 @@
         <v>384</v>
       </c>
       <c r="G181" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H181">
         <v>0.1329168634867819</v>
@@ -10626,7 +10629,7 @@
         <v>378</v>
       </c>
       <c r="G182" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H182">
         <v>-0.1493173004634952</v>
@@ -10676,7 +10679,7 @@
         <v>378</v>
       </c>
       <c r="G183" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H183">
         <v>0.2222131889946394</v>
@@ -10776,7 +10779,7 @@
         <v>378</v>
       </c>
       <c r="G185" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H185">
         <v>0.1958323143838419</v>
@@ -10873,7 +10876,7 @@
         <v>375</v>
       </c>
       <c r="F187" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G187" t="s">
         <v>241</v>
@@ -10926,7 +10929,7 @@
         <v>378</v>
       </c>
       <c r="G188" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H188">
         <v>0.1299252600012366</v>
